--- a/Lectures/data/portal_messy_regexp.xlsx
+++ b/Lectures/data/portal_messy_regexp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="40">
   <si>
     <t>Date Collected</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">  4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1  </t>
   </si>
 </sst>
 </file>
@@ -627,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -708,8 +711,8 @@
       <c r="B5" s="4">
         <v>41471</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
+      <c r="C5" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
